--- a/Raftaar_Core/assets/testcase.xlsx
+++ b/Raftaar_Core/assets/testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="705">
   <si>
     <t>openBrowser</t>
   </si>
@@ -4559,7 +4559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4698,9 +4698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4918,9 +4918,7 @@
       <c r="F11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
@@ -5240,9 +5238,7 @@
       <c r="F29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>

--- a/Raftaar_Core/assets/testcase.xlsx
+++ b/Raftaar_Core/assets/testcase.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="710">
   <si>
     <t>openBrowser</t>
   </si>
@@ -2144,6 +2144,15 @@
   </si>
   <si>
     <t>{testDataSheet=CalculateInterest}</t>
+  </si>
+  <si>
+    <t>#principal</t>
+  </si>
+  <si>
+    <t>#interest</t>
+  </si>
+  <si>
+    <t>#time</t>
   </si>
 </sst>
 </file>
@@ -4704,9 +4713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4768,12 +4777,8 @@
         <v>0</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>706</v>
-      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
@@ -5038,8 +5043,8 @@
       <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="6">
-        <v>1000</v>
+      <c r="G17" s="6" t="s">
+        <v>707</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -5074,8 +5079,8 @@
       <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="6">
-        <v>1</v>
+      <c r="G19" s="6" t="s">
+        <v>708</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -5110,8 +5115,8 @@
       <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="6">
-        <v>5</v>
+      <c r="G21" s="6" t="s">
+        <v>709</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>

--- a/Raftaar_Core/assets/testcase.xlsx
+++ b/Raftaar_Core/assets/testcase.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10830" windowHeight="2520" tabRatio="752" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordList" sheetId="13" r:id="rId1"/>
     <sheet name="FlagsList" sheetId="23" r:id="rId2"/>
     <sheet name="Template" sheetId="20" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="24" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KeywordList!$A$1:$D$151</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="723">
   <si>
     <t>openBrowser</t>
   </si>
@@ -2153,6 +2154,45 @@
   </si>
   <si>
     <t>#time</t>
+  </si>
+  <si>
+    <t>RE.TC.001</t>
+  </si>
+  <si>
+    <t>Create Package</t>
+  </si>
+  <si>
+    <t>RE.CreatePackage</t>
+  </si>
+  <si>
+    <t>RE.LaunchPortal</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>https://automation.phix-qa07.demo.hcinternal.net/employer</t>
+  </si>
+  <si>
+    <t>RE.SignUp</t>
+  </si>
+  <si>
+    <t>RE.ClickSignUp</t>
+  </si>
+  <si>
+    <t>linkText=Sign Up</t>
+  </si>
+  <si>
+    <t>fill signup page 1- form based</t>
+  </si>
+  <si>
+    <t>fill signup page 2- form based</t>
+  </si>
+  <si>
+    <t>RE.signup.step1</t>
+  </si>
+  <si>
+    <t>RE.signup.step2</t>
   </si>
 </sst>
 </file>
@@ -4713,9 +4753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25515,4 +25555,234 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>